--- a/extract-taxonomy.xlsx
+++ b/extract-taxonomy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,17 +680,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A classification of external conditions in which a wind farm operates</t>
+          <t>EXTRACT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>prefLabel of vocabulary</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -712,17 +712,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>A classification of external conditions in which a wind farm operates</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4124-9040</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -776,17 +776,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>https://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -808,17 +808,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -840,17 +840,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2017-09-01T12:00+02:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -872,17 +872,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-10-01T12:00+02:00</t>
+          <t>2017-09-01T12:00+02:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -904,11 +904,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-10-01T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -928,59 +936,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -992,27 +960,59 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>extract:Location</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A collection of terms describing location of the wind turbine operation.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1024,18 +1024,18 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>extract:Topography</t>
+          <t>extract:Location</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A collection of terms describing topographic categories.</t>
+          <t>A collection of terms describing location of the wind turbine operation.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1056,18 +1056,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>extract:TerrainType</t>
+          <t>extract:Topography</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Terrain Type</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A collection of terms describing terrain types.</t>
+          <t>A collection of terms describing topographic categories.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1088,18 +1088,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>extract:WaterDepthCategory</t>
+          <t>extract:TerrainType</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Water Depth Category</t>
+          <t>Terrain Type</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A collection of terms describing water depth catgories.</t>
+          <t>A collection of terms describing terrain types.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1120,22 +1120,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>extract:Offshore</t>
+          <t>extract:WaterDepthCategory</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Offshore</t>
+          <t>Water Depth Category</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A collection of terms describing water depth catgories.</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>extract:Location</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1152,12 +1152,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>extract:Nearshore</t>
+          <t>extract:Offshore</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nearshore</t>
+          <t>Offshore</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1184,12 +1184,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>extract:Coastal</t>
+          <t>extract:Nearshore</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Coastal</t>
+          <t>Nearshore</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1216,12 +1216,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>extract:Inland</t>
+          <t>extract:Coastal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Inland</t>
+          <t>Coastal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1248,12 +1248,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>extract:Forest</t>
+          <t>extract:Inland</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Forest</t>
+          <t>Inland</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>extract:Topography</t>
+          <t>extract:Location</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1280,12 +1280,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>extract:Urban</t>
+          <t>extract:Forest</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Forest</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1312,12 +1312,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>extract:Rural</t>
+          <t>extract:Urban</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1344,12 +1344,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>extract:Semi-Urban</t>
+          <t>extract:Rural</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Semi-Urban</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1376,12 +1376,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>extract:ComplexTerrain</t>
+          <t>extract:Semi-Urban</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Complex Terrain</t>
+          <t>Semi-Urban</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>extract:TerrainType</t>
+          <t>extract:Topography</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1408,12 +1408,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>extract:FlatTerrain</t>
+          <t>extract:ComplexTerrain</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Flat Terrain</t>
+          <t>Complex Terrain</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1440,12 +1440,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>extract:HillyTerrain</t>
+          <t>extract:FlatTerrain</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hilly Terrain</t>
+          <t>Flat Terrain</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>extract:ComplexTerrain</t>
+          <t>extract:TerrainType</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1472,12 +1472,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>extract:Escarpment</t>
+          <t>extract:HillyTerrain</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Escarpment</t>
+          <t>Hilly Terrain</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1504,12 +1504,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>extract:Ridge</t>
+          <t>extract:Escarpment</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ridge</t>
+          <t>Escarpment</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1536,12 +1536,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>extract:ShallowWater</t>
+          <t>extract:Ridge</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Shallow Water</t>
+          <t>Ridge</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1549,7 +1549,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>extract:WaterDepthCategory</t>
+          <t>extract:ComplexTerrain</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1568,12 +1568,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>extract:DeepWater</t>
+          <t>extract:ShallowWater</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Deep Water</t>
+          <t>Shallow Water</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1600,14 +1600,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>extract:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>extract:DeepWater</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Deep Water</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>extract:WaterDepthCategory</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2053,6 +2061,30 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>extract:</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
